--- a/axioo_assessment_rev.xlsx
+++ b/axioo_assessment_rev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Astragraphia\BO1\Axioo\Assessment Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5C6E31-F620-4092-9851-FBC0B26EB13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57C9EF3-DC35-4B7D-B778-5CE6230D42FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Util Yield" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,217 @@
     <sheet name="Devices SitRep" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Util Yield'!$A$1:$J$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Toner-Other Costs'!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Util Yield'!$A$1:$J$21</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D071F35C-C093-4167-8818-F1DD8EEC0245}</author>
+    <author>tc={817A6E8B-1C00-4090-B6B3-B2635DE20900}</author>
+    <author>tc={3240FAA5-8916-46A0-92D1-96A958101A49}</author>
+    <author>tc={4E9D51C7-8E62-4471-B454-8B9E6EAB1771}</author>
+    <author>tc={438EBC16-9B0E-4CEB-980E-AC67837FBA39}</author>
+    <author>tc={C6424AA7-F91A-4A89-A517-E2845EE74E2B}</author>
+    <author>tc={EDADDC75-5327-4A3B-921F-042CA584743F}</author>
+    <author>tc={A6A5BC68-D051-4EBF-90AF-4D3ACE2D497D}</author>
+    <author>tc={2415ADB5-ED2B-4E46-92EA-191AB2648C83}</author>
+    <author>tc={CEBA63A3-73BA-420A-AE53-1CF011DCE3E4}</author>
+    <author>tc={FA05C380-6415-4762-984F-32F5526B961E}</author>
+    <author>tc={FA65544D-1EA9-4FE8-87DE-612D533AB839}</author>
+    <author>tc={28700831-2D75-44A0-8C3E-DD261F7A0D11}</author>
+    <author>tc={BA8C607E-E7AD-48B4-9D48-948E83549E06}</author>
+    <author>tc={BBC10D58-9598-4041-ABAF-ACF5B5B33EA7}</author>
+    <author>tc={1A7FFC36-8FA4-41A8-9E00-6C45EDBD2EC5}</author>
+    <author>tc={C8E36709-B41F-47DD-9EC6-36A2639BBA6A}</author>
+    <author>tc={5D6728FC-FF62-49D7-85DD-2FAE4F82EEAF}</author>
+    <author>tc={C2023FC7-749D-4390-BBC6-1679691DAC44}</author>
+    <author>tc={FE83DEE7-B06F-4E64-A2AE-454BA1BE5B57}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D071F35C-C093-4167-8818-F1DD8EEC0245}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{817A6E8B-1C00-4090-B6B3-B2635DE20900}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Datascript (CV Mitra Sukses Mandiri)</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="2" shapeId="0" xr:uid="{3240FAA5-8916-46A0-92D1-96A958101A49}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Tokped.</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="3" shapeId="0" xr:uid="{4E9D51C7-8E62-4471-B454-8B9E6EAB1771}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Canon Official</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{438EBC16-9B0E-4CEB-980E-AC67837FBA39}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="5" shapeId="0" xr:uid="{C6424AA7-F91A-4A89-A517-E2845EE74E2B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Bhinneka</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="6" shapeId="0" xr:uid="{EDADDC75-5327-4A3B-921F-042CA584743F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="7" shapeId="0" xr:uid="{A6A5BC68-D051-4EBF-90AF-4D3ACE2D497D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Tokped, harga 1 set.</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="8" shapeId="0" xr:uid="{2415ADB5-ED2B-4E46-92EA-191AB2648C83}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Bhinneka</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="9" shapeId="0" xr:uid="{CEBA63A3-73BA-420A-AE53-1CF011DCE3E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Bhinneka.</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="10" shapeId="0" xr:uid="{FA05C380-6415-4762-984F-32F5526B961E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Tokped, harga 1 set.</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="11" shapeId="0" xr:uid="{FA65544D-1EA9-4FE8-87DE-612D533AB839}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="12" shapeId="0" xr:uid="{28700831-2D75-44A0-8C3E-DD261F7A0D11}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="13" shapeId="0" xr:uid="{BA8C607E-E7AD-48B4-9D48-948E83549E06}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Tokped.</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="14" shapeId="0" xr:uid="{BBC10D58-9598-4041-ABAF-ACF5B5B33EA7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Tokped.</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="15" shapeId="0" xr:uid="{1A7FFC36-8FA4-41A8-9E00-6C45EDBD2EC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="16" shapeId="0" xr:uid="{C8E36709-B41F-47DD-9EC6-36A2639BBA6A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="17" shapeId="0" xr:uid="{5D6728FC-FF62-49D7-85DD-2FAE4F82EEAF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="18" shapeId="0" xr:uid="{C2023FC7-749D-4390-BBC6-1679691DAC44}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: HP Official</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="19" shapeId="0" xr:uid="{FE83DEE7-B06F-4E64-A2AE-454BA1BE5B57}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ref: Canon Official</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="60">
   <si>
     <t>Lokasi</t>
   </si>
@@ -190,13 +393,31 @@
   </si>
   <si>
     <t>Speed (ppm)</t>
+  </si>
+  <si>
+    <t>Total Users</t>
+  </si>
+  <si>
+    <t>4 to 6</t>
+  </si>
+  <si>
+    <t>5 to 10</t>
+  </si>
+  <si>
+    <t>2 to 3</t>
+  </si>
+  <si>
+    <t>2 to 4</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +429,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -253,6 +483,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,6 +502,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Garimahdi Astaghfari Supandi" id="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" userId="S::Garimahdi.Supandi@astragraphia.co.id::4444a212-2444-4e40-a8d0-1b6b2543a50c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,28 +793,95 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{D071F35C-C093-4167-8818-F1DD8EEC0245}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2024-06-03T02:28:15.64" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{817A6E8B-1C00-4090-B6B3-B2635DE20900}">
+    <text>Ref: Datascript (CV Mitra Sukses Mandiri)</text>
+  </threadedComment>
+  <threadedComment ref="D4" dT="2024-06-03T05:17:44.84" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{3240FAA5-8916-46A0-92D1-96A958101A49}">
+    <text>Ref: Tokped.</text>
+  </threadedComment>
+  <threadedComment ref="D5" dT="2024-06-03T02:15:26.99" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{4E9D51C7-8E62-4471-B454-8B9E6EAB1771}">
+    <text>Ref: Canon Official</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2024-06-03T05:25:51.48" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{438EBC16-9B0E-4CEB-980E-AC67837FBA39}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2024-06-03T04:26:09.99" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{C6424AA7-F91A-4A89-A517-E2845EE74E2B}">
+    <text>Ref: Bhinneka</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{EDADDC75-5327-4A3B-921F-042CA584743F}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2024-06-03T04:26:56.41" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{A6A5BC68-D051-4EBF-90AF-4D3ACE2D497D}">
+    <text>Ref: Tokped, harga 1 set.</text>
+  </threadedComment>
+  <threadedComment ref="D10" dT="2024-06-03T02:34:12.28" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{2415ADB5-ED2B-4E46-92EA-191AB2648C83}">
+    <text>Ref: Bhinneka</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2024-06-03T04:32:42.59" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{CEBA63A3-73BA-420A-AE53-1CF011DCE3E4}">
+    <text>Ref: Bhinneka.</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2024-06-03T04:26:56.41" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{FA05C380-6415-4762-984F-32F5526B961E}">
+    <text>Ref: Tokped, harga 1 set.</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{FA65544D-1EA9-4FE8-87DE-612D533AB839}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D14" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{28700831-2D75-44A0-8C3E-DD261F7A0D11}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2024-06-03T04:42:11.59" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{BA8C607E-E7AD-48B4-9D48-948E83549E06}">
+    <text>Ref: Tokped.</text>
+  </threadedComment>
+  <threadedComment ref="D16" dT="2024-06-03T04:42:19.41" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{BBC10D58-9598-4041-ABAF-ACF5B5B33EA7}">
+    <text>Ref: Tokped.</text>
+  </threadedComment>
+  <threadedComment ref="D17" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{1A7FFC36-8FA4-41A8-9E00-6C45EDBD2EC5}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D18" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{C8E36709-B41F-47DD-9EC6-36A2639BBA6A}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D19" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{5D6728FC-FF62-49D7-85DD-2FAE4F82EEAF}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D20" dT="2024-06-03T04:51:09.05" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{C2023FC7-749D-4390-BBC6-1679691DAC44}">
+    <text>Ref: HP Official</text>
+  </threadedComment>
+  <threadedComment ref="D21" dT="2024-06-03T02:15:26.99" personId="{AE26798F-8346-4789-ACB1-E87FF2DFBFD9}" id="{FE83DEE7-B06F-4E64-A2AE-454BA1BE5B57}">
+    <text>Ref: Canon Official</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +912,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -619,18 +929,29 @@
       <c r="D2" s="2">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1000</v>
+      </c>
       <c r="I2" s="2">
         <v>1000</v>
       </c>
       <c r="J2" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -643,18 +964,29 @@
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6000</v>
+      </c>
       <c r="I3" s="2">
         <v>200</v>
       </c>
       <c r="J3" s="2">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -667,18 +999,29 @@
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="2">
+        <v>625</v>
+      </c>
+      <c r="F4" s="2">
+        <v>625</v>
+      </c>
+      <c r="G4" s="2">
+        <v>625</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1000</v>
+      </c>
       <c r="I4" s="2">
         <v>300</v>
       </c>
       <c r="J4" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -691,18 +1034,29 @@
       <c r="D5" s="2">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2">
+        <v>244</v>
+      </c>
+      <c r="F5" s="2">
+        <v>244</v>
+      </c>
+      <c r="G5" s="2">
+        <v>244</v>
+      </c>
+      <c r="H5" s="2">
+        <v>220</v>
+      </c>
       <c r="I5" s="2">
         <v>100</v>
       </c>
       <c r="J5" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -715,18 +1069,29 @@
       <c r="D6" s="2">
         <v>17</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2">
+        <v>850</v>
+      </c>
+      <c r="F6" s="2">
+        <v>850</v>
+      </c>
+      <c r="G6" s="2">
+        <v>850</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1050</v>
+      </c>
       <c r="I6" s="2">
         <v>6000</v>
       </c>
       <c r="J6" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -739,18 +1104,29 @@
       <c r="D7" s="2">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2">
+        <v>6500</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6500</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6500</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4000</v>
+      </c>
       <c r="I7" s="2">
         <v>1000</v>
       </c>
       <c r="J7" s="2">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -763,18 +1139,29 @@
       <c r="D8" s="2">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1000</v>
+      </c>
       <c r="I8" s="2">
         <v>200</v>
       </c>
       <c r="J8" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -787,18 +1174,29 @@
       <c r="D9" s="2">
         <v>38</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7500</v>
+      </c>
       <c r="I9" s="2">
         <v>8000</v>
       </c>
       <c r="J9" s="2">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -811,18 +1209,29 @@
       <c r="D10" s="2">
         <v>14.5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2">
+        <v>334</v>
+      </c>
+      <c r="F10" s="2">
+        <v>334</v>
+      </c>
+      <c r="G10" s="2">
+        <v>334</v>
+      </c>
+      <c r="H10" s="2">
+        <v>300</v>
+      </c>
       <c r="I10" s="2">
         <v>2000</v>
       </c>
       <c r="J10" s="2">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -835,18 +1244,29 @@
       <c r="D11" s="2">
         <v>33</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2">
+        <v>7500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4500</v>
+      </c>
       <c r="I11" s="2">
         <v>200</v>
       </c>
       <c r="J11" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -859,18 +1279,29 @@
       <c r="D12" s="2">
         <v>10.5</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7500</v>
+      </c>
       <c r="I12" s="2">
         <v>3000</v>
       </c>
       <c r="J12" s="2">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -883,18 +1314,29 @@
       <c r="D13" s="2">
         <v>21</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000</v>
+      </c>
       <c r="I13" s="2">
         <v>1000</v>
       </c>
       <c r="J13" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -907,18 +1349,29 @@
       <c r="D14" s="2">
         <v>21</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000</v>
+      </c>
       <c r="I14" s="2">
         <v>1600</v>
       </c>
       <c r="J14" s="2">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -931,18 +1384,29 @@
       <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6000</v>
+      </c>
       <c r="I15" s="2">
         <v>1000</v>
       </c>
       <c r="J15" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -955,18 +1419,29 @@
       <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6000</v>
+      </c>
       <c r="I16" s="2">
         <v>500</v>
       </c>
       <c r="J16" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -979,18 +1454,29 @@
       <c r="D17" s="2">
         <v>21</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000</v>
+      </c>
       <c r="I17" s="2">
         <v>950</v>
       </c>
       <c r="J17" s="2">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1003,18 +1489,29 @@
       <c r="D18" s="2">
         <v>21</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1000</v>
+      </c>
       <c r="I18" s="2">
         <v>1200</v>
       </c>
       <c r="J18" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1027,20 +1524,31 @@
       <c r="D19" s="2">
         <v>21</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1000</v>
+      </c>
       <c r="I19" s="2">
         <v>1000</v>
       </c>
       <c r="J19" s="2">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>32</v>
@@ -1051,86 +1559,91 @@
       <c r="D20" s="2">
         <v>21</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1000</v>
+      </c>
       <c r="I20" s="2">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="J20" s="2">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>0.22</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
+        <v>244</v>
+      </c>
+      <c r="F21" s="2">
+        <v>244</v>
+      </c>
+      <c r="G21" s="2">
+        <v>244</v>
+      </c>
+      <c r="H21" s="2">
+        <v>220</v>
+      </c>
       <c r="I21" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J21" s="2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>100</v>
-      </c>
-      <c r="J22" s="2">
         <v>0.13</v>
       </c>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J22" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Canon"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,8 +1665,11 @@
       <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1163,8 +1679,23 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>793000</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1174,8 +1705,23 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>113000</v>
+      </c>
+      <c r="E3">
+        <v>113000</v>
+      </c>
+      <c r="F3">
+        <v>113000</v>
+      </c>
+      <c r="G3">
+        <v>121000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1731,23 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>300000</v>
+      </c>
+      <c r="E4">
+        <v>300000</v>
+      </c>
+      <c r="F4">
+        <v>300000</v>
+      </c>
+      <c r="G4">
+        <v>700000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1196,8 +1757,23 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>360000</v>
+      </c>
+      <c r="E5">
+        <v>360000</v>
+      </c>
+      <c r="F5">
+        <v>360000</v>
+      </c>
+      <c r="G5">
+        <v>290000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1207,8 +1783,23 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>915000</v>
+      </c>
+      <c r="E6">
+        <v>915000</v>
+      </c>
+      <c r="F6">
+        <v>915000</v>
+      </c>
+      <c r="G6">
+        <v>846000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1218,8 +1809,23 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>101000</v>
+      </c>
+      <c r="E7">
+        <v>101000</v>
+      </c>
+      <c r="F7">
+        <v>101000</v>
+      </c>
+      <c r="G7">
+        <v>101000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1229,8 +1835,23 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>793000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1240,8 +1861,23 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>469000</v>
+      </c>
+      <c r="E9">
+        <v>469000</v>
+      </c>
+      <c r="F9">
+        <v>469000</v>
+      </c>
+      <c r="G9">
+        <v>469000</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1251,8 +1887,23 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>219000</v>
+      </c>
+      <c r="E10">
+        <v>219000</v>
+      </c>
+      <c r="F10">
+        <v>219000</v>
+      </c>
+      <c r="G10">
+        <v>246000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1262,8 +1913,23 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>101000</v>
+      </c>
+      <c r="E11">
+        <v>101000</v>
+      </c>
+      <c r="F11">
+        <v>101000</v>
+      </c>
+      <c r="G11">
+        <v>101000</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1273,8 +1939,23 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>469000</v>
+      </c>
+      <c r="E12">
+        <v>469000</v>
+      </c>
+      <c r="F12">
+        <v>469000</v>
+      </c>
+      <c r="G12">
+        <v>469000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1284,8 +1965,23 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>793000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1295,8 +1991,23 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>793000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1306,8 +2017,23 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>168000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1317,8 +2043,23 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>168000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1328,8 +2069,23 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>793000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1339,10 +2095,25 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>793000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -1350,10 +2121,25 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>793000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -1361,31 +2147,52 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>793000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
         <v>18</v>
       </c>
+      <c r="D21">
+        <v>360000</v>
+      </c>
+      <c r="E21">
+        <v>360000</v>
+      </c>
+      <c r="F21">
+        <v>360000</v>
+      </c>
+      <c r="G21">
+        <v>290000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G21" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1393,9 +2200,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
